--- a/Chronicles (current records)/Email,Password, Population/Ashesi Muslims List.xlsx
+++ b/Chronicles (current records)/Email,Password, Population/Ashesi Muslims List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hussein Baba Fuseini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - Ashesi University\Desktop\ALL IN ONE\OTHERS\1.3 AMC Folder\AMC-Repository\Chronicles (current records)\Email,Password, Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D0E1728-8421-4978-9D7C-49D15D56F5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245D1ACB-7D01-44AC-8167-BD87BF407B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Muslims" sheetId="3" r:id="rId1"/>
@@ -662,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,9 +990,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1030,7 +1030,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1136,7 +1136,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1278,7 +1278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1288,11 +1288,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9DD642-9282-4629-B5B9-B5333564F663}">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C111" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="I77" sqref="G65:I77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="8" customWidth="1"/>
@@ -1305,7 +1305,7 @@
     <col min="9" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="14.25">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>20892022</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="14.25">
+    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>25372022</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="14.25">
+    <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>14092022</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="14.25">
+    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>60652022</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="14.25">
+    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>18942022</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="14.25">
+    <row r="7" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>73692022</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="14.25">
+    <row r="8" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>85702022</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="14.25">
+    <row r="9" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>12382022</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="14.25">
+    <row r="10" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>43982022</v>
       </c>
@@ -1418,9 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25"/>
-    <row r="12" spans="1:5" ht="14.25"/>
-    <row r="13" spans="1:5" s="21" customFormat="1" ht="14.25">
+    <row r="13" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>72282023</v>
       </c>
@@ -1434,7 +1432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="21" customFormat="1" ht="14.25">
+    <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>66952023</v>
       </c>
@@ -1451,7 +1449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="21" customFormat="1" ht="14.25">
+    <row r="15" spans="1:5" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>64992023</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="21" customFormat="1" ht="14.25">
+    <row r="16" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>50642023</v>
       </c>
@@ -1482,7 +1480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="21" customFormat="1" ht="14.25">
+    <row r="17" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>54632023</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="21" customFormat="1" ht="14.25">
+    <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>26722023</v>
       </c>
@@ -1516,7 +1514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="21" customFormat="1" ht="14.25">
+    <row r="19" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>96362023</v>
       </c>
@@ -1533,7 +1531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="21" customFormat="1" ht="14.25">
+    <row r="20" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>74332023</v>
       </c>
@@ -1550,9 +1548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25"/>
-    <row r="22" spans="1:5" ht="14.25"/>
-    <row r="23" spans="1:5" ht="14.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>49972024</v>
       </c>
@@ -1566,7 +1562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>36952024</v>
       </c>
@@ -1580,7 +1576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>28612024</v>
       </c>
@@ -1591,7 +1587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>35682024</v>
       </c>
@@ -1608,7 +1604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>42112024</v>
       </c>
@@ -1625,7 +1621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1">
+    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>49722024</v>
       </c>
@@ -1642,7 +1638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1">
+    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>51332024</v>
       </c>
@@ -1659,7 +1655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28922024</v>
       </c>
@@ -1673,7 +1669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>40572024</v>
       </c>
@@ -1690,7 +1686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>57052024</v>
       </c>
@@ -1704,7 +1700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>52482024</v>
       </c>
@@ -1721,7 +1717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32992024</v>
       </c>
@@ -1738,7 +1734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>28672024</v>
       </c>
@@ -1752,7 +1748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42182024</v>
       </c>
@@ -1766,8 +1762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.25"/>
-    <row r="38" spans="1:5" ht="14.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>80072025</v>
       </c>
@@ -1781,7 +1776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>11522025</v>
       </c>
@@ -1792,7 +1787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -1803,7 +1798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>78172025</v>
       </c>
@@ -1814,7 +1809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>80092025</v>
       </c>
@@ -1828,7 +1823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>15582025</v>
       </c>
@@ -1839,17 +1834,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.25"/>
-    <row r="46" spans="1:5" ht="14.25"/>
-    <row r="47" spans="1:5" ht="14.25"/>
-    <row r="48" spans="1:5" ht="14.25"/>
-    <row r="49" spans="1:9" ht="14.25"/>
-    <row r="50" spans="1:9" ht="14.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>63322026</v>
       </c>
@@ -1863,7 +1853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>61132026</v>
       </c>
@@ -1877,7 +1867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>92622026</v>
       </c>
@@ -1888,7 +1878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>50522026</v>
       </c>
@@ -1899,7 +1889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>66012026</v>
       </c>
@@ -1910,7 +1900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>55112026</v>
       </c>
@@ -1921,7 +1911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
         <v>63</v>
       </c>
@@ -1929,7 +1919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>47402026</v>
       </c>
@@ -1940,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
         <v>65</v>
       </c>
@@ -1951,7 +1941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>66</v>
       </c>
@@ -1959,17 +1949,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>69</v>
       </c>
@@ -1977,12 +1967,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="14.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="8">
         <v>2027</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="24" t="s">
         <v>1</v>
       </c>
@@ -1999,7 +1989,7 @@
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
     </row>
-    <row r="65" spans="2:8" ht="14.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="27" t="s">
         <v>73</v>
       </c>
@@ -2019,7 +2009,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="14.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="27" t="s">
         <v>78</v>
       </c>
@@ -2039,7 +2029,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="14.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="27" t="s">
         <v>83</v>
       </c>
@@ -2059,7 +2049,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="14.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="27" t="s">
         <v>87</v>
       </c>
@@ -2079,7 +2069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="14.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="27" t="s">
         <v>91</v>
       </c>
@@ -2099,7 +2089,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="14.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="27" t="s">
         <v>95</v>
       </c>
@@ -2119,7 +2109,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="14.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="27" t="s">
         <v>100</v>
       </c>
@@ -2139,7 +2129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="14.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="27" t="s">
         <v>104</v>
       </c>
@@ -2159,7 +2149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="14.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="27" t="s">
         <v>109</v>
       </c>
@@ -2179,7 +2169,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="14.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="27" t="s">
         <v>113</v>
       </c>
@@ -2199,7 +2189,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="14.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="27" t="s">
         <v>118</v>
       </c>
@@ -2219,7 +2209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="14.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="27" t="s">
         <v>122</v>
       </c>
@@ -2233,7 +2223,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="14.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="27" t="s">
         <v>125</v>
       </c>
@@ -2247,7 +2237,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="14.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="27" t="s">
         <v>128</v>
       </c>
@@ -2261,7 +2251,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="14.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="27" t="s">
         <v>130</v>
       </c>
@@ -2275,7 +2265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="14.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="27" t="s">
         <v>131</v>
       </c>
@@ -2287,7 +2277,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="14.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="27" t="s">
         <v>133</v>
       </c>
@@ -2301,7 +2291,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="27" t="s">
         <v>136</v>
       </c>
@@ -2315,7 +2305,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="27" t="s">
         <v>137</v>
       </c>
@@ -2329,7 +2319,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="14.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="27" t="s">
         <v>139</v>
       </c>
@@ -2343,7 +2333,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="27" t="s">
         <v>142</v>
       </c>
@@ -2357,7 +2347,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="14.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="27" t="s">
         <v>144</v>
       </c>
@@ -2369,7 +2359,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="27" t="s">
         <v>145</v>
       </c>
@@ -2383,7 +2373,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="27" t="s">
         <v>147</v>
       </c>
@@ -2397,7 +2387,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="27" t="s">
         <v>148</v>
       </c>
@@ -2411,7 +2401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="14.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="27" t="s">
         <v>149</v>
       </c>
@@ -2425,7 +2415,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="14.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="27" t="s">
         <v>151</v>
       </c>
@@ -2439,7 +2429,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="14.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="27" t="s">
         <v>152</v>
       </c>
@@ -2453,7 +2443,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="14.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="27" t="s">
         <v>139</v>
       </c>
@@ -2467,7 +2457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="14.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="27" t="s">
         <v>154</v>
       </c>
@@ -2481,7 +2471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="14.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="27" t="s">
         <v>155</v>
       </c>
@@ -2495,7 +2485,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="14.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="27" t="s">
         <v>158</v>
       </c>
@@ -2509,7 +2499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="14.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="27" t="s">
         <v>159</v>
       </c>
@@ -2523,7 +2513,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="14.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="27" t="s">
         <v>160</v>
       </c>
@@ -2537,7 +2527,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="14.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="27" t="s">
         <v>162</v>
       </c>
@@ -2551,7 +2541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="14.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="27" t="s">
         <v>164</v>
       </c>
@@ -2565,7 +2555,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="14.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="27" t="s">
         <v>167</v>
       </c>
@@ -2579,7 +2569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="14.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="27" t="s">
         <v>168</v>
       </c>
@@ -2593,7 +2583,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="14.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="27" t="s">
         <v>169</v>
       </c>
@@ -2607,7 +2597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="14.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="27" t="s">
         <v>170</v>
       </c>
@@ -2621,7 +2611,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="14.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="27" t="s">
         <v>172</v>
       </c>
@@ -2635,7 +2625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="14.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="27" t="s">
         <v>173</v>
       </c>
@@ -2647,7 +2637,7 @@
       </c>
       <c r="E106" s="29"/>
     </row>
-    <row r="107" spans="2:5" ht="14.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="27" t="s">
         <v>174</v>
       </c>
@@ -2661,7 +2651,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="14.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="27" t="s">
         <v>175</v>
       </c>
@@ -2675,7 +2665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="14.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="27" t="s">
         <v>176</v>
       </c>
@@ -2689,7 +2679,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="14.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="27" t="s">
         <v>179</v>
       </c>
@@ -2703,7 +2693,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="14.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="27" t="s">
         <v>182</v>
       </c>
@@ -2717,7 +2707,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="14.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="27" t="s">
         <v>184</v>
       </c>
@@ -2731,7 +2721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="14.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="27" t="s">
         <v>185</v>
       </c>
@@ -2745,7 +2735,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="14.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="27" t="s">
         <v>186</v>
       </c>
@@ -2759,7 +2749,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="14.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="27" t="s">
         <v>187</v>
       </c>
@@ -2773,7 +2763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="14.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="27" t="s">
         <v>188</v>
       </c>
@@ -2787,7 +2777,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="14.25">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="27" t="s">
         <v>189</v>
       </c>
@@ -2801,7 +2791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="14.25">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="27" t="s">
         <v>190</v>
       </c>
@@ -2815,7 +2805,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="14.25">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="27" t="s">
         <v>191</v>
       </c>
@@ -2829,7 +2819,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="14.25">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="27" t="s">
         <v>192</v>
       </c>
@@ -2843,7 +2833,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="2:6" ht="14.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="27" t="s">
         <v>194</v>
       </c>
@@ -2857,7 +2847,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="2:6" ht="14.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="27" t="s">
         <v>195</v>
       </c>
@@ -2871,7 +2861,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="14.25">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="27" t="s">
         <v>196</v>
       </c>
@@ -2885,7 +2875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="2:6" ht="14.25">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="27" t="s">
         <v>197</v>
       </c>
@@ -2899,7 +2889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="14.25">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="27" t="s">
         <v>199</v>
       </c>
@@ -2913,7 +2903,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="2:6" ht="14.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="27" t="s">
         <v>200</v>
       </c>
@@ -2927,77 +2917,77 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="14.25">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="27"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
       <c r="E127" s="28"/>
       <c r="F127" s="29"/>
     </row>
-    <row r="128" spans="2:6" ht="14.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="27"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
       <c r="E128" s="28"/>
       <c r="F128" s="29"/>
     </row>
-    <row r="129" spans="2:6" ht="14.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="27"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
       <c r="E129" s="28"/>
       <c r="F129" s="29"/>
     </row>
-    <row r="130" spans="2:6" ht="14.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="27"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
       <c r="E130" s="28"/>
       <c r="F130" s="29"/>
     </row>
-    <row r="131" spans="2:6" ht="14.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="27"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
       <c r="E131" s="28"/>
       <c r="F131" s="29"/>
     </row>
-    <row r="132" spans="2:6" ht="14.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="27"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
       <c r="E132" s="28"/>
       <c r="F132" s="29"/>
     </row>
-    <row r="133" spans="2:6" ht="14.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" s="27"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
       <c r="E133" s="28"/>
       <c r="F133" s="29"/>
     </row>
-    <row r="134" spans="2:6" ht="14.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="27"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
       <c r="E134" s="28"/>
       <c r="F134" s="29"/>
     </row>
-    <row r="135" spans="2:6" ht="14.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="27"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
       <c r="E135" s="28"/>
       <c r="F135" s="29"/>
     </row>
-    <row r="136" spans="2:6" ht="14.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="27"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
       <c r="E136" s="28"/>
       <c r="F136" s="29"/>
     </row>
-    <row r="137" spans="2:6" ht="14.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="30"/>
       <c r="C137" s="31"/>
       <c r="D137" s="31"/>
@@ -3020,7 +3010,7 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="8" customWidth="1"/>
@@ -3028,7 +3018,7 @@
     <col min="4" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3039,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="2" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>20892022</v>
       </c>
@@ -3050,7 +3040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="3" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>25372022</v>
       </c>
@@ -3061,7 +3051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="4" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>14092022</v>
       </c>
@@ -3072,7 +3062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>60652022</v>
       </c>
@@ -3083,7 +3073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="6" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>18942022</v>
       </c>
@@ -3094,7 +3084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="7" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>73692022</v>
       </c>
@@ -3105,7 +3095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>85702022</v>
       </c>
@@ -3116,7 +3106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="9" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>12382022</v>
       </c>
@@ -3127,7 +3117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="10" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>43982022</v>
       </c>
@@ -3138,9 +3128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25"/>
-    <row r="12" spans="1:3" ht="14.25"/>
-    <row r="13" spans="1:3" ht="14.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>72282023</v>
       </c>
@@ -3151,7 +3139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>66952023</v>
       </c>
@@ -3162,7 +3150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25">
+    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>64992023</v>
       </c>
@@ -3173,7 +3161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>50642023</v>
       </c>
@@ -3184,7 +3172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>54632023</v>
       </c>
@@ -3195,7 +3183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>26722023</v>
       </c>
@@ -3206,7 +3194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>96362023</v>
       </c>
@@ -3217,7 +3205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>74332023</v>
       </c>
@@ -3228,9 +3216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25"/>
-    <row r="22" spans="1:3" ht="14.25"/>
-    <row r="23" spans="1:3" ht="14.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>49972024</v>
       </c>
@@ -3241,7 +3227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>36952024</v>
       </c>
@@ -3252,7 +3238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>28612024</v>
       </c>
@@ -3263,7 +3249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>35682024</v>
       </c>
@@ -3274,7 +3260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>42112024</v>
       </c>
@@ -3285,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>49722024</v>
       </c>
@@ -3296,7 +3282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>51332024</v>
       </c>
@@ -3307,7 +3293,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28922024</v>
       </c>
@@ -3318,7 +3304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>40572024</v>
       </c>
@@ -3329,7 +3315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>57052024</v>
       </c>
@@ -3340,7 +3326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>52482024</v>
       </c>
@@ -3351,7 +3337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32992024</v>
       </c>
@@ -3362,7 +3348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>28672024</v>
       </c>
@@ -3373,7 +3359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42182024</v>
       </c>
@@ -3384,8 +3370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25"/>
-    <row r="38" spans="1:3" ht="14.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>80072025</v>
       </c>
@@ -3396,7 +3381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>11522025</v>
       </c>
@@ -3407,7 +3392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -3418,7 +3403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>78172025</v>
       </c>
@@ -3429,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>80092025</v>
       </c>
@@ -3440,7 +3425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>63322026</v>
       </c>
@@ -3451,7 +3436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>61132026</v>
       </c>
@@ -3462,7 +3447,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>92622026</v>
       </c>
@@ -3470,7 +3455,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>50522026</v>
       </c>
@@ -3481,7 +3466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>66012026</v>
       </c>
@@ -3492,7 +3477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>55112026</v>
       </c>
@@ -3503,7 +3488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
         <v>205</v>
       </c>
@@ -3524,7 +3509,7 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="8" customWidth="1"/>
@@ -3532,7 +3517,7 @@
     <col min="4" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="2" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>20892022</v>
       </c>
@@ -3554,7 +3539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="3" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>25372022</v>
       </c>
@@ -3565,7 +3550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="4" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>14092022</v>
       </c>
@@ -3576,7 +3561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="5" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>60652022</v>
       </c>
@@ -3587,7 +3572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="6" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>18942022</v>
       </c>
@@ -3598,7 +3583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="7" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>73692022</v>
       </c>
@@ -3609,7 +3594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="8" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>85702022</v>
       </c>
@@ -3620,7 +3605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="9" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>12382022</v>
       </c>
@@ -3631,7 +3616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="12" customFormat="1" ht="14.25">
+    <row r="10" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>43982022</v>
       </c>
@@ -3642,9 +3627,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="21" customFormat="1" ht="14.25"/>
-    <row r="12" spans="1:3" s="21" customFormat="1" ht="14.25"/>
-    <row r="13" spans="1:3" s="21" customFormat="1" ht="14.25">
+    <row r="11" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>72282023</v>
       </c>
@@ -3655,7 +3640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="21" customFormat="1" ht="14.25">
+    <row r="14" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>66952023</v>
       </c>
@@ -3666,7 +3651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="21" customFormat="1" ht="14.25">
+    <row r="15" spans="1:3" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>64992023</v>
       </c>
@@ -3677,7 +3662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="21" customFormat="1" ht="14.25">
+    <row r="16" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>50642023</v>
       </c>
@@ -3688,7 +3673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="21" customFormat="1" ht="14.25">
+    <row r="17" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>54632023</v>
       </c>
@@ -3699,7 +3684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="21" customFormat="1" ht="14.25">
+    <row r="18" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>26722023</v>
       </c>
@@ -3710,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="21" customFormat="1" ht="14.25">
+    <row r="19" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>96362023</v>
       </c>
@@ -3721,7 +3706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="21" customFormat="1" ht="14.25">
+    <row r="20" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>74332023</v>
       </c>
@@ -3732,9 +3717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25"/>
-    <row r="22" spans="1:3" ht="14.25"/>
-    <row r="23" spans="1:3" ht="14.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>49972024</v>
       </c>
@@ -3745,7 +3728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>36952024</v>
       </c>
@@ -3756,7 +3739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>28612024</v>
       </c>
@@ -3767,7 +3750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>35682024</v>
       </c>
@@ -3778,7 +3761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>42112024</v>
       </c>
@@ -3789,7 +3772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>49722024</v>
       </c>
@@ -3800,7 +3783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>51332024</v>
       </c>
@@ -3811,7 +3794,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28922024</v>
       </c>
@@ -3822,7 +3805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>40572024</v>
       </c>
@@ -3833,7 +3816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>57052024</v>
       </c>
@@ -3844,7 +3827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>52482024</v>
       </c>
@@ -3855,7 +3838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32992024</v>
       </c>
@@ -3866,7 +3849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>28672024</v>
       </c>
@@ -3877,7 +3860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42182024</v>
       </c>
@@ -3888,8 +3871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25"/>
-    <row r="38" spans="1:3" ht="14.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>80072025</v>
       </c>
@@ -3900,7 +3882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>11522025</v>
       </c>
@@ -3911,7 +3893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -3922,7 +3904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>78172025</v>
       </c>
@@ -3933,7 +3915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>80092025</v>
       </c>
